--- a/Data/PreliminaryProteomeCharacterization.xlsx
+++ b/Data/PreliminaryProteomeCharacterization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shelly/Documents/GitHub/OysterSeedProject/analysis/UniprotAnnotations_NetworkAnalysis/General_proteome_characterization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1B081E-1FFF-0248-89FB-29EF3EE07A85}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C7453A-C5F6-8A47-B086-7BB343147686}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="1160" windowWidth="21060" windowHeight="11020" xr2:uid="{E4D4141F-9E7A-AF49-93CF-6C29E7FAD514}"/>
+    <workbookView xWindow="1560" yWindow="7720" windowWidth="21060" windowHeight="11020" xr2:uid="{E4D4141F-9E7A-AF49-93CF-6C29E7FAD514}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">Exposure Day </t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>29C</t>
+  </si>
+  <si>
+    <t>Days post fertilization</t>
   </si>
 </sst>
 </file>
@@ -164,22 +167,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -248,22 +251,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -332,22 +335,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -426,13 +429,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>days exposed</a:t>
+                  <a:t>days post-fertilization</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> to increased temperature</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1606,10 +1604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE76AD-3FF5-BB4E-94DC-91D3CCBB3FEE}">
-  <dimension ref="B1:E7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1617,9 +1615,12 @@
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1631,9 +1632,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
       <c r="B2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>904</v>
@@ -1645,9 +1649,12 @@
         <v>738</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>5</v>
+      </c>
       <c r="B3">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>913</v>
@@ -1659,9 +1666,12 @@
         <v>629</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7</v>
+      </c>
       <c r="B4">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>906</v>
@@ -1673,9 +1683,12 @@
         <v>573</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>9</v>
+      </c>
       <c r="B5">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>1005</v>
@@ -1687,9 +1700,12 @@
         <v>655</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>11</v>
+      </c>
       <c r="B6">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>807</v>
@@ -1701,9 +1717,12 @@
         <v>705</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>13</v>
+      </c>
       <c r="B7">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>561</v>

--- a/Data/PreliminaryProteomeCharacterization.xlsx
+++ b/Data/PreliminaryProteomeCharacterization.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shelly/Documents/GitHub/OysterSeedProject/analysis/UniprotAnnotations_NetworkAnalysis/General_proteome_characterization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shelly/Documents/GitHub/paper-OysterSeed-TimeXTemp/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C7453A-C5F6-8A47-B086-7BB343147686}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179ADE89-6A57-6040-82A3-6436BEFE9A0D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="7720" windowWidth="21060" windowHeight="11020" xr2:uid="{E4D4141F-9E7A-AF49-93CF-6C29E7FAD514}"/>
+    <workbookView xWindow="4480" yWindow="920" windowWidth="21060" windowHeight="11020" xr2:uid="{E4D4141F-9E7A-AF49-93CF-6C29E7FAD514}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,21 +31,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t xml:space="preserve">Exposure Day </t>
+    <t>Days post fertilization</t>
   </si>
   <si>
-    <t>overlap</t>
+    <t>23°C</t>
   </si>
   <si>
-    <t>23C</t>
+    <t>29°C</t>
   </si>
   <si>
-    <t>29C</t>
+    <t>23°C and 29°C</t>
   </si>
   <si>
-    <t>Days post fertilization</t>
+    <t>23°C all</t>
+  </si>
+  <si>
+    <t>Day post temperature treatment</t>
+  </si>
+  <si>
+    <t>29°C all</t>
+  </si>
+  <si>
+    <t>average proteome size</t>
+  </si>
+  <si>
+    <t>sd</t>
   </si>
 </sst>
 </file>
@@ -81,8 +93,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -91,7 +107,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFF8839"/>
+      <color rgb="FFFD3BFF"/>
+      <color rgb="FFF63AF8"/>
+      <color rgb="FF782CCF"/>
+      <color rgb="FFE737E8"/>
+      <color rgb="FF00D0D1"/>
+      <color rgb="FFDC35DD"/>
+      <color rgb="FFC731C7"/>
+      <color rgb="FFFF40FF"/>
+      <color rgb="FF942093"/>
+      <color rgb="FF9437FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -145,14 +170,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>23C</c:v>
+                  <c:v>23°C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FFC000"/>
+              <a:srgbClr val="00D0D1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -162,9 +187,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>21</c:v>
@@ -189,9 +214,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:f>Sheet1!$C$3:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>904</c:v>
@@ -229,14 +254,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>overlap</c:v>
+                  <c:v>23°C and 29°C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FF8839"/>
+              <a:srgbClr val="782CCF"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -246,9 +271,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>21</c:v>
@@ -273,9 +298,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$7</c:f>
+              <c:f>Sheet1!$D$3:$D$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>4312</c:v>
@@ -313,14 +338,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>29C</c:v>
+                  <c:v>29°C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:srgbClr val="FD3BFF"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -330,9 +355,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>21</c:v>
@@ -357,9 +382,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$7</c:f>
+              <c:f>Sheet1!$E$3:$E$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>738</c:v>
@@ -429,7 +454,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>days post-fertilization</a:t>
+                  <a:t>Days Post-fertilization</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -463,7 +488,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -549,7 +574,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>number of detected proteins</a:t>
+                  <a:t>Number of Detected Proteins</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -591,7 +616,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -642,9 +667,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.67494203849518808"/>
-          <c:y val="4.6874453193350825E-2"/>
-          <c:w val="0.28344903762029744"/>
+          <c:x val="0.4860531496062992"/>
+          <c:y val="3.7615193934091573E-2"/>
+          <c:w val="0.45289348206474189"/>
           <c:h val="7.8125546806649182E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1270,16 +1295,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1604,10 +1629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE76AD-3FF5-BB4E-94DC-91D3CCBB3FEE}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1615,123 +1640,209 @@
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>5185</v>
+      </c>
+      <c r="G2">
+        <v>5185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>3</v>
       </c>
+      <c r="B3" s="1">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1">
+        <v>904</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4312</v>
+      </c>
+      <c r="E3" s="1">
+        <v>738</v>
+      </c>
+      <c r="F3" s="1">
+        <f>C3+D3</f>
+        <v>5216</v>
+      </c>
+      <c r="G3" s="1">
+        <f>D3+E3</f>
+        <v>5050</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>21</v>
-      </c>
-      <c r="C2">
-        <v>904</v>
-      </c>
-      <c r="D2">
-        <v>4312</v>
-      </c>
-      <c r="E2">
-        <v>738</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1">
+        <v>913</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4325</v>
+      </c>
+      <c r="E4" s="1">
+        <v>629</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F8" si="0">C4+D4</f>
+        <v>5238</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G8" si="1">D4+E4</f>
+        <v>4954</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>23</v>
-      </c>
-      <c r="C3">
-        <v>913</v>
-      </c>
-      <c r="D3">
-        <v>4325</v>
-      </c>
-      <c r="E3">
-        <v>629</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1">
+        <v>906</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4145</v>
+      </c>
+      <c r="E5" s="1">
+        <v>573</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>5051</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>4718</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1005</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4123</v>
+      </c>
+      <c r="E6" s="1">
+        <v>655</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>5128</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>4778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1">
+        <v>807</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3937</v>
+      </c>
+      <c r="E7" s="1">
+        <v>705</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>4744</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>4642</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1">
+        <v>561</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3852</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1202</v>
+      </c>
+      <c r="F8" s="1">
+        <f>C8+D8</f>
+        <v>4413</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>5054</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>25</v>
-      </c>
-      <c r="C4">
-        <v>906</v>
-      </c>
-      <c r="D4">
-        <v>4145</v>
-      </c>
-      <c r="E4">
-        <v>573</v>
+      <c r="G9" s="1">
+        <f>AVERAGE(F3:G8,F2)</f>
+        <v>4936.2307692307695</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>27</v>
-      </c>
-      <c r="C5">
-        <v>1005</v>
-      </c>
-      <c r="D5">
-        <v>4123</v>
-      </c>
-      <c r="E5">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>29</v>
-      </c>
-      <c r="C6">
-        <v>807</v>
-      </c>
-      <c r="D6">
-        <v>3937</v>
-      </c>
-      <c r="E6">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>31</v>
-      </c>
-      <c r="C7">
-        <v>561</v>
-      </c>
-      <c r="D7">
-        <v>3852</v>
-      </c>
-      <c r="E7">
-        <v>1202</v>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1">
+        <f>STDEV(F3:G8,F2)</f>
+        <v>254.66551718092035</v>
       </c>
     </row>
   </sheetData>
